--- a/biology/Botanique/Médaille_Victoria_de_l'honneur/Médaille_Victoria_de_l'honneur.xlsx
+++ b/biology/Botanique/Médaille_Victoria_de_l'honneur/Médaille_Victoria_de_l'honneur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Victoria_de_l%27honneur</t>
+          <t>Médaille_Victoria_de_l'honneur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médaille Victoria de l’honneur (en anglais, Victoria Medal of Honour (VMH) est décernée par la Royal Horticultural Society aux personnalités les plus importantes de l’horticulture du Royaume-Uni. Ce prix est fondé en 1897, à l’occasion du 63e anniversaire du règne de la reine Victoria (1819-1901). Seules 63 personnes peuvent être titulaires en même temps de la médaille, d'où l'irrégularité des dates de remises[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médaille Victoria de l’honneur (en anglais, Victoria Medal of Honour (VMH) est décernée par la Royal Horticultural Society aux personnalités les plus importantes de l’horticulture du Royaume-Uni. Ce prix est fondé en 1897, à l’occasion du 63e anniversaire du règne de la reine Victoria (1819-1901). Seules 63 personnes peuvent être titulaires en même temps de la médaille, d'où l'irrégularité des dates de remises.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Victoria_de_l%27honneur</t>
+          <t>Médaille_Victoria_de_l'honneur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Lauréat de la médaille Victoria de l'honneur.
-1897 : soixante médailles sont remises lors de sa création, entre autres à[2] :
+1897 : soixante médailles sont remises lors de sa création, entre autres à :
 John Gilbert Baker (1834-1920)
 Isaac Bayley Balfour (1853-1922)
 Henry Nicholson Ellacombe (en)
